--- a/res.xlsx
+++ b/res.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="23">
   <si>
     <t>godel</t>
   </si>
@@ -43,12 +46,70 @@
   <si>
     <t>Sparse 100000</t>
   </si>
+  <si>
+    <t>\hline</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.0005}</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>hashset</t>
+  </si>
+  <si>
+    <t>bitset</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.001}</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.005}</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.01}</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.05}</t>
+  </si>
+  <si>
+    <t>\cline{2-11}</t>
+  </si>
+  <si>
+    <t>\multirow{4}{*}{0.1}</t>
+  </si>
+  <si>
+    <t>\multirow{12}{*}{10,000}</t>
+  </si>
+  <si>
+    <t>\multirow{12}{*}{100,000}</t>
+  </si>
+  <si>
+    <t>\multirow{12}{*}{5,000}</t>
+  </si>
+  <si>
+    <t>\multirow{12}{*}{50,000}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,34 +158,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="24">
+    <cellStyle name="Comma" xfId="17" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -133,6 +204,9 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -141,6 +215,9 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection sqref="A1:S92"/>
     </sheetView>
   </sheetViews>
@@ -4864,7 +4941,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7089,7 +7165,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7102,7 +7177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
@@ -9388,6 +9463,8057 @@
       </c>
       <c r="J92">
         <v>1.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0.79408400000000001</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6">
+        <v>0.66750299999999996</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6">
+        <v>0.27840199999999998</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="6">
+        <v>1.14286</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="6">
+        <v>3</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="6">
+        <v>2.5714299999999999</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>6.375</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6">
+        <v>14.666700000000001</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6">
+        <v>7.281E-2</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6">
+        <v>7.5282299999999996E-2</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5.2434500000000002E-2</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2.7142900000000001</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>13.875</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.95904400000000001</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.54956099999999997</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.19975000000000001</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6">
+        <v>1</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>555.5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1342.67</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.7303799999999998</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3.7791700000000001</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3.8252199999999998</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1.14286</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1.14286</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29.076899999999998</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>86.25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.73387899999999995</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.66838799999999998</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.293103</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1.88889</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2.8333300000000001</v>
+      </c>
+      <c r="U6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9.0769199999999994</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6">
+        <v>6.1412500000000002E-2</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6.5404500000000004E-2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="6">
+        <v>4.4827600000000002E-2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.54545500000000002</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1.2222200000000001</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6">
+        <v>55.25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.85260999999999998</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.50487700000000002</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.18218400000000001</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.36363600000000001</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>338.53800000000001</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>993.25</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.6678599999999999</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1.7270099999999999</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0.81818199999999996</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>68.139499999999998</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6">
+        <v>223.077</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.56873799999999997</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.544767</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.230323</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1.1818200000000001</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>32.883699999999997</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>98.230800000000002</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4.6196099999999997E-2</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4.4075799999999998E-2</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2.99641E-2</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.45454499999999998</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0.97142899999999999</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="6">
+        <v>3.36</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>26.046500000000002</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>83.769199999999998</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.63480599999999998</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.36423499999999998</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.12998000000000001</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.272727</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>102.628</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>304.30799999999999</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.24454999999999999</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.237294</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.247387</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.36363600000000001</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.228571</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>90.174999999999997</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6">
+        <v>320.77300000000002</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.45708700000000002</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.44823000000000002</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0.18043600000000001</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="6">
+        <v>1.0882400000000001</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.89705900000000005</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0.925373</v>
+      </c>
+      <c r="U16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>49.037500000000001</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6">
+        <v>174.864</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3.54487E-2</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="6">
+        <v>3.3580400000000003E-2</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2.2369900000000002E-2</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.32352900000000001</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="6">
+        <v>3.0149300000000001</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>30.074999999999999</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>102.545</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.480794</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.27866800000000003</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6">
+        <v>9.7941500000000001E-2</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.20588200000000001</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.22058800000000001</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.223881</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>54.762500000000003</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>181.95500000000001</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6">
+        <v>8.9320700000000003E-2</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6">
+        <v>8.9424600000000007E-2</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="6">
+        <v>9.0864299999999995E-2</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.235294</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.117647</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.134328</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>149.51300000000001</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>582.91800000000001</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.29547899999999999</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.31335000000000002</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.17594499999999999</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.67605599999999999</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.336391</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0.46610200000000002</v>
+      </c>
+      <c r="U21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6">
+        <v>55.2316</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6">
+        <v>215.392</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1.6298799999999999E-2</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.62636E-2</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1.03891E-2</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.21126800000000001</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1.48624</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="6">
+        <v>5.3728800000000003</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42.744700000000002</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6">
+        <v>166.09299999999999</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.213167</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.183283</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="6">
+        <v>9.3243300000000001E-2</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.309859</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0.11315</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.211864</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11.4947</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6">
+        <v>40.463900000000002</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6">
+        <v>8.2877999999999997E-3</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6">
+        <v>8.6598600000000001E-3</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6">
+        <v>8.8025199999999994E-3</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="6">
+        <v>6.3380300000000001E-2</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="6">
+        <v>2.4464799999999998E-2</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="6">
+        <v>3.8135599999999999E-2</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.6666699999999999</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.45946</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.1785699999999999</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="7">
+        <v>2.6666699999999999</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.324324</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.39285700000000001</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="7">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.3333300000000001</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.7567600000000001</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.60714</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="7">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>36.333300000000001</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>35.333300000000001</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.2162199999999999</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.9285700000000001</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3.32</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7">
+        <v>17.75</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5.6666699999999999</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1.06677</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.88791600000000004</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.37237799999999999</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6.625</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9.7826099999999999E-2</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.10507900000000001</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7.16783E-2</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.3333300000000001</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.3183199999999999</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.81961499999999998</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.286713</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="7">
+        <v>1</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>13.75</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7">
+        <v>23.333300000000001</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.128882</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.14710999999999999</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.14860100000000001</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7">
+        <v>89.147099999999995</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>285.45499999999998</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.84255500000000005</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.78939899999999996</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.39945799999999998</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1.2777799999999999</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1.9615400000000001</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12" s="7">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40.941200000000002</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7">
+        <v>112.818</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="7">
+        <v>7.5430300000000006E-2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="7">
+        <v>6.9512500000000005E-2</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4.94321E-2</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1.4230799999999999</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="7">
+        <v>4.32</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7">
+        <v>31.2941</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7">
+        <v>94.181799999999996</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.92133500000000002</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.55119899999999999</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.201213</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1.4444399999999999</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0.92307700000000004</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3.23529</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
+        <v>9.7272700000000007</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9.5876199999999998E-3</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.0704200000000001E-2</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.09706E-2</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.111111</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>3.8461500000000003E-2</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7">
+        <v>9</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.1650499999999999</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1.0555600000000001</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.394737</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="7">
+        <v>3.6666699999999999</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.165049</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.222222</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.15789500000000001</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="7">
+        <v>2</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="7">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.6601900000000001</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.42105300000000001</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>2</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1.1666700000000001</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>49.4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7">
+        <v>117.5</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1.6407799999999999</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2.3194400000000002</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2.1973699999999998</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="7">
+        <v>84.25</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.95186400000000004</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.79702600000000001</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.348665</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="7">
+        <v>2.5714299999999999</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="7">
+        <v>3</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7">
+        <v>8.1355899999999995E-2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7">
+        <v>8.4014900000000003E-2</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5.8605299999999999E-2</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.63636400000000004</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="7">
+        <v>1.7142900000000001</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>22.2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="7">
+        <v>55.5</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.16814</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.64461000000000002</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.23516300000000001</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.272727</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.85714299999999999</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>24.6</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="7">
+        <v>59</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.129492</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.141264</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.14094999999999999</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.18181800000000001</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7">
+        <v>111.88200000000001</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7">
+        <v>392.73700000000002</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.69558399999999998</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.62584600000000001</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0.31292799999999998</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>2.34483</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1.35185</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28" s="7">
+        <v>1.6046499999999999</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
+        <v>58.852899999999998</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="7">
+        <v>205.73699999999999</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="7">
+        <v>5.15884E-2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.8333899999999999E-2</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="7">
+        <v>3.3964300000000003E-2</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.44827600000000001</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="7">
+        <v>1.75926</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="7">
+        <v>5.6976699999999996</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7">
+        <v>39.235300000000002</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7">
+        <v>134.89500000000001</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.62361599999999995</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.39019100000000001</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.14444899999999999</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.58620700000000003</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0.40740700000000002</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0.76744199999999996</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3.5588199999999999</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7">
+        <v>12.1053</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6.6333700000000004E-3</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="7">
+        <v>7.3057699999999996E-3</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7.3387900000000004E-3</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31" s="7">
+        <v>6.8965499999999999E-2</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>3.7037E-2</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="7">
+        <v>4.65116E-2</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="7">
+        <v>17.875</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="7">
+        <v>40</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.828851</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.66756000000000004</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0.26202500000000001</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="7">
+        <v>3</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="7">
+        <v>14.666700000000001</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="7">
+        <v>7.7017100000000005E-2</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="7">
+        <v>8.0429E-2</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>5.0632900000000002E-2</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="7">
+        <v>4</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7">
+        <v>14</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="7">
+        <v>37.333300000000001</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1.0476799999999999</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.58579099999999995</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.201266</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.42857099999999998</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="2"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7">
+        <v>247.875</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="7">
+        <v>599.33299999999997</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1.6907099999999999</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.73861</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1.6632899999999999</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0.57142899999999996</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>1</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="7"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="7">
+        <v>76.243899999999996</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7">
+        <v>259.33300000000003</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.61952600000000002</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.57615799999999995</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0.24126900000000001</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>1.09091</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="7">
+        <v>1.45455</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U39" s="7">
+        <v>1.7692300000000001</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7">
+        <v>35.4634</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="7">
+        <v>104.667</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4.9819200000000001E-2</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="7">
+        <v>4.8198100000000001E-2</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40" s="7">
+        <v>3.2435800000000001E-2</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0.40909099999999998</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0.93939399999999995</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" s="7">
+        <v>4.0384599999999997</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40" s="2"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7">
+        <v>27.3415</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="7">
+        <v>91.916700000000006</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.69851300000000005</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.39064399999999999</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.139963</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0.227273</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="7"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>48.341500000000003</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="7">
+        <v>150.667</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.11297699999999999</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.117877</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.11516899999999999</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0.227273</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0.15151500000000001</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0.15384600000000001</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="V42" s="2"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="2"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="7">
+        <v>158.88399999999999</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7">
+        <v>596.42700000000002</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.31976399999999999</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.33927499999999999</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="7">
+        <v>0.20064699999999999</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0.36893199999999998</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0.58883200000000002</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7">
+        <v>58.382300000000001</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7">
+        <v>219.28100000000001</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1.7798999999999999E-2</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="7">
+        <v>1.7946E-2</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1.19487E-2</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.23134299999999999</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="7">
+        <v>1.65049</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45" s="7">
+        <v>6.3857900000000001</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V45" s="2"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="7">
+        <v>52.692500000000003</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="7">
+        <v>197.81200000000001</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.253969</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.23794899999999999</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.13067300000000001</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0.80596999999999996</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.13592199999999999</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0.35025400000000001</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="7"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5.5651000000000002</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="7">
+        <v>19.104199999999999</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="7">
+        <v>4.0334400000000001E-3</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="7">
+        <v>4.18667E-3</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="7">
+        <v>4.1978500000000004E-3</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="7">
+        <v>3.7313399999999997E-2</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>1.61812E-2</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47" s="7">
+        <v>3.0456899999999999E-2</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="2"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="2"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="7">
+        <v>29.461500000000001</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="7">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.74658999999999998</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.61981600000000003</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0.280802</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50" s="7">
+        <v>2.4285700000000001</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7">
+        <v>8.7692300000000003</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="7">
+        <v>6.1909800000000001E-2</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="7">
+        <v>6.5092200000000003E-2</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="7">
+        <v>4.4699099999999999E-2</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="7">
+        <v>3.8571399999999998</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7">
+        <v>17</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="7">
+        <v>44</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.87670499999999996</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.50115200000000004</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.18338099999999999</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S52" s="7">
+        <v>1.2857099999999999</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U52" s="7"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7">
+        <v>338.077</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="7">
+        <v>807.6</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1.79538</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="7">
+        <v>1.86751</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1.8653299999999999</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>1.125</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S53" s="7">
+        <v>1.14286</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U53" s="7"/>
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="2"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="7">
+        <v>96.746799999999993</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="7">
+        <v>341.45499999999998</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.48322199999999998</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.464391</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0.18915199999999999</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>1.4571400000000001</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55" s="7">
+        <v>1.04478</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U55" s="7">
+        <v>1.0588200000000001</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="7">
+        <v>51.278500000000001</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="7">
+        <v>179.31800000000001</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7">
+        <v>3.5092600000000002E-2</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="7">
+        <v>3.3458300000000003E-2</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56" s="7">
+        <v>2.2280299999999999E-2</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0.31428600000000001</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="7">
+        <v>1.3582099999999999</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T56" s="7">
+        <v>3.3529399999999998</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="7">
+        <v>35.569600000000001</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="7">
+        <v>123.90900000000001</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0.49423</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.279526</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.100123</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0.28571400000000002</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0.25373099999999998</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0.32352900000000001</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U57" s="7"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="7">
+        <v>54.392400000000002</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="7">
+        <v>179.136</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="7">
+        <v>9.2732800000000004E-2</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="7">
+        <v>9.7609699999999994E-2</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="7">
+        <v>9.7910300000000006E-2</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>0.119403</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S58" s="7">
+        <v>0.117647</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U58" s="7"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="7">
+        <v>141.405</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="7">
+        <v>414.68099999999998</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.224132</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0.24041299999999999</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0.146287</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.47099000000000002</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60" s="7">
+        <v>0.19264700000000001</v>
+      </c>
+      <c r="T60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60" s="7">
+        <v>0.24571399999999999</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7">
+        <v>51.8996</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="7">
+        <v>152.03899999999999</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1.21964E-2</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="7">
+        <v>1.25507E-2</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" s="7">
+        <v>8.0283999999999998E-3</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61" s="7">
+        <v>0.143345</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61" s="7">
+        <v>1.5397099999999999</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T61" s="7">
+        <v>4.8247600000000004</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V61" s="2"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="7">
+        <v>68.372399999999999</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="7">
+        <v>199.84</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.20427200000000001</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.20253499999999999</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.115601</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62" s="7">
+        <v>0.61092199999999997</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>8.0882399999999993E-2</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0.17333299999999999</v>
+      </c>
+      <c r="T62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="7"/>
+      <c r="V62" s="2"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7">
+        <v>5.40266</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="7">
+        <v>14.8582</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="7">
+        <v>3.3416499999999998E-3</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="7">
+        <v>3.5650999999999999E-3</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="7">
+        <v>3.5587599999999998E-3</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63" s="7">
+        <v>2.73038E-2</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>1.1764699999999999E-2</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63" s="7">
+        <v>1.5238099999999999E-2</v>
+      </c>
+      <c r="T63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U63" s="7"/>
+      <c r="V63" s="2"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>1.179</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1.333</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1.333</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>0.36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>0.75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>1.607</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>0.72</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>1.667</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>36.332999999999998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>35.332999999999998</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>3.32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>0.25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>17.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>5.6669999999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>0.372</v>
+      </c>
+      <c r="P7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>1.333</v>
+      </c>
+      <c r="R7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>3.2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>6.625</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>0.105</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>0.82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>1.2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>13.75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>23.332999999999998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0.129</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>0.2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10">
+        <v>0.25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>89.147000000000006</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>285.45499999999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>1.278</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>1.962</v>
+      </c>
+      <c r="T12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>40.941000000000003</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>112.818</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>1.423</v>
+      </c>
+      <c r="S13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>4.32</v>
+      </c>
+      <c r="U13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>31.294</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>94.182000000000002</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>1.444</v>
+      </c>
+      <c r="P14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>0.72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>3.2349999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <v>0.111</v>
+      </c>
+      <c r="P15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <v>0.08</v>
+      </c>
+      <c r="T15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>4.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>1.165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.056</v>
+      </c>
+      <c r="N18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>1.25</v>
+      </c>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="T18" t="s">
+        <v>9</v>
+      </c>
+      <c r="U18">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="V18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>1.8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>0.222</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>0.158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>0.75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>1.333</v>
+      </c>
+      <c r="S19" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>1.66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>1.25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>0.75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <v>1.167</v>
+      </c>
+      <c r="T20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>49.4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>117.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>1.641</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>2.319</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="T21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>84.25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="T23" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>26.5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>1.714</v>
+      </c>
+      <c r="S24" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24">
+        <v>4.5</v>
+      </c>
+      <c r="U24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>22.2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>55.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="L25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="P25" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="R25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>1.333</v>
+      </c>
+      <c r="T25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>24.6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>0.129</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <v>0.182</v>
+      </c>
+      <c r="P26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="R26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>111.88200000000001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>392.73700000000002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="L28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>0.626</v>
+      </c>
+      <c r="N28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>0.313</v>
+      </c>
+      <c r="P28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="R28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="T28" t="s">
+        <v>9</v>
+      </c>
+      <c r="U28">
+        <v>1.605</v>
+      </c>
+      <c r="V28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>58.853000000000002</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>205.73699999999999</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>5.6980000000000004</v>
+      </c>
+      <c r="U29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>39.234999999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>134.89500000000001</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>0.624</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>0.39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="P30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="R30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="T30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>12.105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R31" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31">
+        <v>4.7E-2</v>
+      </c>
+      <c r="T31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>17.875</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="N34" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="P34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34">
+        <v>3.4</v>
+      </c>
+      <c r="V34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>6.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>14.667</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>0.08</v>
+      </c>
+      <c r="M35" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35">
+        <v>1.6</v>
+      </c>
+      <c r="S35" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>37.332999999999998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>1.048</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="L36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="N36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O36">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="P36" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <v>1.2</v>
+      </c>
+      <c r="R36" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <v>1.6</v>
+      </c>
+      <c r="T36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>247.875</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>599.33299999999997</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>1.663</v>
+      </c>
+      <c r="N37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="P37" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>1.2</v>
+      </c>
+      <c r="T37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>76.244</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>259.33300000000003</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>0.62</v>
+      </c>
+      <c r="L39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="P39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <v>1.091</v>
+      </c>
+      <c r="R39" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="T39" t="s">
+        <v>9</v>
+      </c>
+      <c r="U39">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="V39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>35.463000000000001</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>104.667</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>0.05</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="U40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>27.341999999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41">
+        <v>91.917000000000002</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="L41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q41">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R41" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <v>0.5</v>
+      </c>
+      <c r="T41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>48.341999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>150.667</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>0.113</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="L42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42">
+        <v>0.115</v>
+      </c>
+      <c r="N42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P42" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q42">
+        <v>0.152</v>
+      </c>
+      <c r="R42" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42">
+        <v>0.154</v>
+      </c>
+      <c r="T42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>158.88399999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>596.42700000000002</v>
+      </c>
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>0.32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M44">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="N44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="P44" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="R44" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="T44" t="s">
+        <v>9</v>
+      </c>
+      <c r="U44">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="V44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>58.381999999999998</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>219.28100000000001</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>1.65</v>
+      </c>
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>6.3860000000000001</v>
+      </c>
+      <c r="U45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>52.692999999999998</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>197.81200000000001</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>0.254</v>
+      </c>
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="L46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N46" t="s">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="P46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q46">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="R46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <v>0.35</v>
+      </c>
+      <c r="T46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>5.5650000000000004</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>19.103999999999999</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>1.6E-2</v>
+      </c>
+      <c r="R47" t="s">
+        <v>9</v>
+      </c>
+      <c r="S47">
+        <v>0.03</v>
+      </c>
+      <c r="T47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>29.462</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>0.747</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
+      </c>
+      <c r="M50">
+        <v>0.62</v>
+      </c>
+      <c r="N50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O50">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="P50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q50">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="R50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50">
+        <v>2.25</v>
+      </c>
+      <c r="T50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U50">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="V50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <v>20.2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M51" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51">
+        <v>1.5</v>
+      </c>
+      <c r="S51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51">
+        <v>3.8570000000000002</v>
+      </c>
+      <c r="U51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>44</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52">
+        <v>0.877</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>0.501</v>
+      </c>
+      <c r="L52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>0.183</v>
+      </c>
+      <c r="N52" t="s">
+        <v>9</v>
+      </c>
+      <c r="O52">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="P52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52">
+        <v>0.875</v>
+      </c>
+      <c r="R52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S52">
+        <v>1.286</v>
+      </c>
+      <c r="T52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>338.077</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>807.6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="L53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53">
+        <v>1.865</v>
+      </c>
+      <c r="N53" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53">
+        <v>0.5</v>
+      </c>
+      <c r="P53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53">
+        <v>1.125</v>
+      </c>
+      <c r="R53" t="s">
+        <v>9</v>
+      </c>
+      <c r="S53">
+        <v>1.143</v>
+      </c>
+      <c r="T53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>96.747</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55">
+        <v>341.45499999999998</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="L55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N55" t="s">
+        <v>9</v>
+      </c>
+      <c r="O55">
+        <v>0.189</v>
+      </c>
+      <c r="P55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="R55" t="s">
+        <v>9</v>
+      </c>
+      <c r="S55">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="T55" t="s">
+        <v>9</v>
+      </c>
+      <c r="U55">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="V55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>51.279000000000003</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
+        <v>179.31800000000001</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>9</v>
+      </c>
+      <c r="N56">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>9</v>
+      </c>
+      <c r="P56">
+        <v>0.314</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="S56" t="s">
+        <v>9</v>
+      </c>
+      <c r="T56">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="U56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>35.57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>123.90900000000001</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57">
+        <v>0.1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="P57" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>0.254</v>
+      </c>
+      <c r="R57" t="s">
+        <v>9</v>
+      </c>
+      <c r="S57">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>54.392000000000003</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>179.136</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L58" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>9</v>
+      </c>
+      <c r="O58">
+        <v>0.2</v>
+      </c>
+      <c r="P58" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="R58" t="s">
+        <v>9</v>
+      </c>
+      <c r="S58">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="T58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>141.405</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>414.68099999999998</v>
+      </c>
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60">
+        <v>0.224</v>
+      </c>
+      <c r="L60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60">
+        <v>0.24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P60" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q60">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="R60" t="s">
+        <v>9</v>
+      </c>
+      <c r="S60">
+        <v>0.193</v>
+      </c>
+      <c r="T60" t="s">
+        <v>9</v>
+      </c>
+      <c r="U60">
+        <v>0.246</v>
+      </c>
+      <c r="V60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61">
+        <v>51.9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>152.03899999999999</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>9</v>
+      </c>
+      <c r="P61">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61">
+        <v>1.54</v>
+      </c>
+      <c r="S61" t="s">
+        <v>9</v>
+      </c>
+      <c r="T61">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="U61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>68.372</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>199.84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="N62" t="s">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="P62" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q62">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>9</v>
+      </c>
+      <c r="S62">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="T62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>14.858000000000001</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>9</v>
+      </c>
+      <c r="O63">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P63" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q63">
+        <v>1.2E-2</v>
+      </c>
+      <c r="R63" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
